--- a/Assets/06.Table/DimensionStatus.xlsx
+++ b/Assets/06.Table/DimensionStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BC1BE-1117-4878-8C3B-C64FC09B96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689B22C-3A14-48C6-8F63-A974C21CD2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionStatus" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,25 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C582B8AF-9C84-4387-9DF9-408A284F1D79}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{C582B8AF-9C84-4387-9DF9-408A284F1D79}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    신규 베기는 테이블 확장으로 확장되어야함
+추후 확장 시 재확인 필요</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
@@ -62,14 +81,6 @@
     <t>upgradePrice</t>
   </si>
   <si>
-    <t>차원 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차원 공격력(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추가 기술 데미지(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,18 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신규 베기(% )1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 베기(%) 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 베기(%) 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dimension</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +118,26 @@
   </si>
   <si>
     <t>S2_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 공격력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(% )1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(%) 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(%) 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,6 +299,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="성훈 권" id="{88094E54-4A2E-45B4-A5DA-5A13567F5B1C}" userId="99838191fb953e30" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,14 +602,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B5" dT="2024-05-10T05:52:32.23" personId="{88094E54-4A2E-45B4-A5DA-5A13567F5B1C}" id="{C582B8AF-9C84-4387-9DF9-408A284F1D79}">
+    <text>신규 베기는 테이블 확장으로 확장되어야함
+추후 확장 시 재확인 필요</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -616,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -636,13 +670,13 @@
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>0</v>
@@ -651,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -666,13 +700,13 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -681,7 +715,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -696,13 +730,13 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -711,7 +745,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -726,13 +760,13 @@
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -741,7 +775,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -751,18 +785,18 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -771,7 +805,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
@@ -785,18 +819,18 @@
         <v>100</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -805,7 +839,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
@@ -819,12 +853,13 @@
         <v>100</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/06.Table/DimensionStatus.xlsx
+++ b/Assets/06.Table/DimensionStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689B22C-3A14-48C6-8F63-A974C21CD2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839A69A-175F-490C-BA5B-1E57EAC2EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionStatus" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3">
         <v>100</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3">
         <v>0.05</v>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3">
         <v>0.05</v>

--- a/Assets/06.Table/DimensionStatus.xlsx
+++ b/Assets/06.Table/DimensionStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839A69A-175F-490C-BA5B-1E57EAC2EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6042E3-4F0D-46E1-B894-7D53475BB911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DimensionStatus" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={8E37053F-987D-4B1F-807D-EE7E7BEA3CAA}</author>
     <author>tc={C582B8AF-9C84-4387-9DF9-408A284F1D79}</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{C582B8AF-9C84-4387-9DF9-408A284F1D79}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8E37053F-987D-4B1F-807D-EE7E7BEA3CAA}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    아이콘 idx용으로 사용</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{C582B8AF-9C84-4387-9DF9-408A284F1D79}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -52,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>key</t>
   </si>
@@ -69,75 +78,82 @@
     <t>AddValue</t>
   </si>
   <si>
+    <t>NeedStatusKey</t>
+  </si>
+  <si>
+    <t>UnlockLevel</t>
+  </si>
+  <si>
+    <t>upgradePrice</t>
+  </si>
+  <si>
+    <t>추가 기술 데미지(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 공격력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(% )1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(%) 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(%) 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3_DC</t>
+  </si>
+  <si>
+    <t>시간 베기(%) 4</t>
+  </si>
+  <si>
     <t>StatusType</t>
-  </si>
-  <si>
-    <t>NeedStatusKey</t>
-  </si>
-  <si>
-    <t>UnlockLevel</t>
-  </si>
-  <si>
-    <t>upgradePrice</t>
-  </si>
-  <si>
-    <t>추가 기술 데미지(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dimension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD_DS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0_DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1_DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2_DC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 공격력(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 베기(% )1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 베기(%) 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간 베기(%) 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +209,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -604,6 +626,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G1" dT="2024-06-26T05:34:53.55" personId="{88094E54-4A2E-45B4-A5DA-5A13567F5B1C}" id="{8E37053F-987D-4B1F-807D-EE7E7BEA3CAA}">
+    <text>아이콘 idx용으로 사용</text>
+  </threadedComment>
   <threadedComment ref="B5" dT="2024-05-10T05:52:32.23" personId="{88094E54-4A2E-45B4-A5DA-5A13567F5B1C}" id="{C582B8AF-9C84-4387-9DF9-408A284F1D79}">
     <text>신규 베기는 테이블 확장으로 확장되어야함
 추후 확장 시 재확인 필요</text>
@@ -613,12 +638,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,33 +675,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>0</v>
@@ -700,13 +725,13 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -730,13 +755,13 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -760,13 +785,13 @@
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -790,13 +815,13 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -824,13 +849,13 @@
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -854,6 +879,40 @@
       </c>
       <c r="J7" s="3">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <f>A7</f>
+        <v>S2_DC</v>
+      </c>
+      <c r="I8" s="3">
+        <f>E7</f>
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DimensionStatus.xlsx
+++ b/Assets/06.Table/DimensionStatus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6042E3-4F0D-46E1-B894-7D53475BB911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E462E-E25F-4633-BEED-4B4ECB35C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>key</t>
   </si>
@@ -155,6 +155,12 @@
   <si>
     <t>StatusType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4_DC</t>
+  </si>
+  <si>
+    <t>시간 베기(%) 5</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,12 +215,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -638,12 +638,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -915,6 +915,40 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>A8</f>
+        <v>S3_DC</v>
+      </c>
+      <c r="I9" s="3">
+        <f>E8</f>
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DimensionStatus.xlsx
+++ b/Assets/06.Table/DimensionStatus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E462E-E25F-4633-BEED-4B4ECB35C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2739AE6-9466-407F-AC11-ADD6C422E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>key</t>
   </si>
@@ -161,6 +161,22 @@
   </si>
   <si>
     <t>시간 베기(%) 5</t>
+  </si>
+  <si>
+    <t>S5_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6_DC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(%) 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기(%) 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -170,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,15 +654,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="24" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="5" bestFit="1" customWidth="1"/>
@@ -661,7 +677,7 @@
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -723,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -753,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="3" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -783,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -813,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="3" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -847,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -881,7 +897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -915,7 +931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -947,6 +963,74 @@
       </c>
       <c r="J9" s="3">
         <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <f>A9</f>
+        <v>S4_DC</v>
+      </c>
+      <c r="I10" s="3">
+        <f>E9</f>
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <f>A10</f>
+        <v>S5_DC</v>
+      </c>
+      <c r="I11" s="3">
+        <f>E10</f>
+        <v>100</v>
+      </c>
+      <c r="J11" s="3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DimensionStatus.xlsx
+++ b/Assets/06.Table/DimensionStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2739AE6-9466-407F-AC11-ADD6C422E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3E30A9-CDAB-40F7-BDB8-B9B8054AC23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -186,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,10 +659,10 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="5" bestFit="1" customWidth="1"/>
@@ -677,7 +677,7 @@
     <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -852,18 +852,18 @@
         <v>4</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>A5</f>
+        <f t="shared" ref="H6:H11" si="0">A5</f>
         <v>S0_DC</v>
       </c>
       <c r="I6" s="3">
-        <f>E5</f>
+        <f t="shared" ref="I6:I11" si="1">E5</f>
         <v>100</v>
       </c>
       <c r="J6" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -886,18 +886,18 @@
         <v>5</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>S1_DC</v>
       </c>
       <c r="I7" s="3">
-        <f>E6</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J7" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -920,18 +920,18 @@
         <v>6</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>S2_DC</v>
       </c>
       <c r="I8" s="3">
-        <f>E7</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -954,18 +954,18 @@
         <v>7</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>S3_DC</v>
       </c>
       <c r="I9" s="3">
-        <f>E8</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -982,24 +982,24 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="3">
         <v>8</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>S4_DC</v>
       </c>
       <c r="I10" s="3">
-        <f>E9</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -1016,17 +1016,17 @@
         <v>100</v>
       </c>
       <c r="F11" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="3">
         <v>9</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>S5_DC</v>
       </c>
       <c r="I11" s="3">
-        <f>E10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J11" s="3">
